--- a/sample_data/sample_data_2021-01.xlsx
+++ b/sample_data/sample_data_2021-01.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -630,7 +630,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>建行批量业务</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>流动资金贷款</t>
+          <t>常规业务</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>信用贷款</t>
+          <t>工行批量业务</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
